--- a/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="185">
   <si>
     <t>ModuleName</t>
   </si>
@@ -561,6 +561,30 @@
   </si>
   <si>
     <t>7906291088</t>
+  </si>
+  <si>
+    <t>9930402232</t>
+  </si>
+  <si>
+    <t>0631225414</t>
+  </si>
+  <si>
+    <t>1514597022</t>
+  </si>
+  <si>
+    <t>8856092863</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-01-24</t>
+  </si>
+  <si>
+    <t>2024-01-24 03:49:03 PM</t>
+  </si>
+  <si>
+    <t>93950</t>
   </si>
 </sst>
 </file>
@@ -6249,7 +6273,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6273,13 +6297,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>130</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6318,13 +6342,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6339,10 +6363,10 @@
         <v>149</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6354,7 +6378,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6366,7 +6390,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6628,7 +6652,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6703,7 +6727,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6727,7 +6751,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6739,7 +6763,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -6994,7 +7018,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7069,7 +7093,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7093,7 +7117,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7105,7 +7129,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7360,7 +7384,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7435,7 +7459,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7459,7 +7483,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7471,7 +7495,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="193">
   <si>
     <t>ModuleName</t>
   </si>
@@ -585,6 +585,30 @@
   </si>
   <si>
     <t>93950</t>
+  </si>
+  <si>
+    <t>5111367868</t>
+  </si>
+  <si>
+    <t>8066212809</t>
+  </si>
+  <si>
+    <t>9498816864</t>
+  </si>
+  <si>
+    <t>8501155441</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>02:35:55 PM</t>
+  </si>
+  <si>
+    <t>2024-03-06 07:57:38 PM</t>
+  </si>
+  <si>
+    <t>97692</t>
   </si>
 </sst>
 </file>
@@ -6273,7 +6297,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6297,13 +6321,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6342,13 +6366,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6366,7 +6390,7 @@
         <v>181</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6378,7 +6402,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6390,7 +6414,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6652,7 +6676,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6727,7 +6751,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6751,7 +6775,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6763,7 +6787,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7018,7 +7042,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7093,7 +7117,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7117,7 +7141,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7129,7 +7153,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7384,7 +7408,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7459,7 +7483,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7483,7 +7507,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7495,7 +7519,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="200">
   <si>
     <t>ModuleName</t>
   </si>
@@ -609,6 +609,27 @@
   </si>
   <si>
     <t>97692</t>
+  </si>
+  <si>
+    <t>2960230144</t>
+  </si>
+  <si>
+    <t>1643258012</t>
+  </si>
+  <si>
+    <t>0354247674</t>
+  </si>
+  <si>
+    <t>1925536591</t>
+  </si>
+  <si>
+    <t>2024-04-10</t>
+  </si>
+  <si>
+    <t>2024-04-10 04:59:59 PM</t>
+  </si>
+  <si>
+    <t>122107</t>
   </si>
 </sst>
 </file>
@@ -6297,7 +6318,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6321,13 +6342,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>190</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6366,13 +6387,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6390,7 +6411,7 @@
         <v>181</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6402,7 +6423,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6414,7 +6435,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6676,7 +6697,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6751,7 +6772,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6775,7 +6796,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6787,7 +6808,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7042,7 +7063,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7117,7 +7138,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7141,7 +7162,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7153,7 +7174,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7408,7 +7429,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7483,7 +7504,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7507,7 +7528,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7519,7 +7540,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="208">
   <si>
     <t>ModuleName</t>
   </si>
@@ -630,6 +630,30 @@
   </si>
   <si>
     <t>122107</t>
+  </si>
+  <si>
+    <t>3408706844</t>
+  </si>
+  <si>
+    <t>4394921098</t>
+  </si>
+  <si>
+    <t>1638277905</t>
+  </si>
+  <si>
+    <t>1636446368</t>
+  </si>
+  <si>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>2024-04-12 11:08:47 AM</t>
+  </si>
+  <si>
+    <t>122149</t>
   </si>
 </sst>
 </file>
@@ -6318,7 +6342,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -6342,13 +6366,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -6387,13 +6411,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -6411,7 +6435,7 @@
         <v>181</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -6423,7 +6447,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -6435,7 +6459,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -6697,7 +6721,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -6772,7 +6796,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -6796,7 +6820,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -6808,7 +6832,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -7063,7 +7087,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -7138,7 +7162,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -7162,7 +7186,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -7174,7 +7198,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -7429,7 +7453,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -7504,7 +7528,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -7528,7 +7552,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -7540,7 +7564,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="170">
   <si>
     <t>ModuleName</t>
   </si>
@@ -501,6 +501,45 @@
   </si>
   <si>
     <t>126186</t>
+  </si>
+  <si>
+    <t>6495162803</t>
+  </si>
+  <si>
+    <t>4550809554</t>
+  </si>
+  <si>
+    <t>4038959510</t>
+  </si>
+  <si>
+    <t>3160334050</t>
+  </si>
+  <si>
+    <t>126188</t>
+  </si>
+  <si>
+    <t>9047883587</t>
+  </si>
+  <si>
+    <t>2111867314</t>
+  </si>
+  <si>
+    <t>7409594403</t>
+  </si>
+  <si>
+    <t>7677755753</t>
+  </si>
+  <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>2024-05-29 10:34:43 AM</t>
+  </si>
+  <si>
+    <t>126190</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1403,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1388,13 +1427,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1433,13 +1472,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1457,7 +1496,7 @@
         <v>144</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -1469,7 +1508,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1481,7 +1520,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -1743,7 +1782,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -1818,7 +1857,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -1842,7 +1881,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -1854,7 +1893,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -2109,7 +2148,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -2184,7 +2223,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -2208,7 +2247,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -2220,7 +2259,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -2475,7 +2514,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -2550,7 +2589,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -2574,7 +2613,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -2586,7 +2625,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="181">
   <si>
     <t>ModuleName</t>
   </si>
@@ -540,6 +540,39 @@
   </si>
   <si>
     <t>126190</t>
+  </si>
+  <si>
+    <t>9840044232</t>
+  </si>
+  <si>
+    <t>9840061710</t>
+  </si>
+  <si>
+    <t>9840047242</t>
+  </si>
+  <si>
+    <t>9840016616</t>
+  </si>
+  <si>
+    <t>9840078370</t>
+  </si>
+  <si>
+    <t>9840048550</t>
+  </si>
+  <si>
+    <t>9840077117</t>
+  </si>
+  <si>
+    <t>9840034551</t>
+  </si>
+  <si>
+    <t>2024-07-11</t>
+  </si>
+  <si>
+    <t>2024-07-14 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>136749</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1436,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1427,13 +1460,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1472,13 +1505,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1496,7 +1529,7 @@
         <v>144</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -1508,7 +1541,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1520,7 +1553,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -1782,7 +1815,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -1857,7 +1890,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -1881,7 +1914,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -1893,7 +1926,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -2148,7 +2181,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -2223,7 +2256,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -2247,7 +2280,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -2259,7 +2292,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -2514,7 +2547,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -2589,7 +2622,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -2613,7 +2646,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -2625,7 +2658,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="287">
   <si>
     <t>ModuleName</t>
   </si>
@@ -573,6 +573,324 @@
   </si>
   <si>
     <t>136749</t>
+  </si>
+  <si>
+    <t>9840072422</t>
+  </si>
+  <si>
+    <t>9840002719</t>
+  </si>
+  <si>
+    <t>9840000975</t>
+  </si>
+  <si>
+    <t>9840080397</t>
+  </si>
+  <si>
+    <t>9840077733</t>
+  </si>
+  <si>
+    <t>9840091757</t>
+  </si>
+  <si>
+    <t>9840061844</t>
+  </si>
+  <si>
+    <t>9840062495</t>
+  </si>
+  <si>
+    <t>9840014402</t>
+  </si>
+  <si>
+    <t>9840036150</t>
+  </si>
+  <si>
+    <t>9840032202</t>
+  </si>
+  <si>
+    <t>9840001374</t>
+  </si>
+  <si>
+    <t>02-01-2025</t>
+  </si>
+  <si>
+    <t>05-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>158768</t>
+  </si>
+  <si>
+    <t>9840043834</t>
+  </si>
+  <si>
+    <t>9840093879</t>
+  </si>
+  <si>
+    <t>9840044196</t>
+  </si>
+  <si>
+    <t>9840089013</t>
+  </si>
+  <si>
+    <t>158776</t>
+  </si>
+  <si>
+    <t>9840045471</t>
+  </si>
+  <si>
+    <t>9840045095</t>
+  </si>
+  <si>
+    <t>9840053085</t>
+  </si>
+  <si>
+    <t>9840037609</t>
+  </si>
+  <si>
+    <t>158778</t>
+  </si>
+  <si>
+    <t>9840081974</t>
+  </si>
+  <si>
+    <t>9840008850</t>
+  </si>
+  <si>
+    <t>9840064720</t>
+  </si>
+  <si>
+    <t>9840058651</t>
+  </si>
+  <si>
+    <t>158780</t>
+  </si>
+  <si>
+    <t>9840026926</t>
+  </si>
+  <si>
+    <t>9840022124</t>
+  </si>
+  <si>
+    <t>9840098186</t>
+  </si>
+  <si>
+    <t>9840036016</t>
+  </si>
+  <si>
+    <t>9840079159</t>
+  </si>
+  <si>
+    <t>9840036000</t>
+  </si>
+  <si>
+    <t>9840012429</t>
+  </si>
+  <si>
+    <t>9840080486</t>
+  </si>
+  <si>
+    <t>9840059370</t>
+  </si>
+  <si>
+    <t>9840028117</t>
+  </si>
+  <si>
+    <t>9840068830</t>
+  </si>
+  <si>
+    <t>9840074271</t>
+  </si>
+  <si>
+    <t>9840051788</t>
+  </si>
+  <si>
+    <t>9840048406</t>
+  </si>
+  <si>
+    <t>9840017927</t>
+  </si>
+  <si>
+    <t>9840049139</t>
+  </si>
+  <si>
+    <t>158782</t>
+  </si>
+  <si>
+    <t>9840059096</t>
+  </si>
+  <si>
+    <t>9840058345</t>
+  </si>
+  <si>
+    <t>9840073428</t>
+  </si>
+  <si>
+    <t>9840093285</t>
+  </si>
+  <si>
+    <t>9840075387</t>
+  </si>
+  <si>
+    <t>9840084971</t>
+  </si>
+  <si>
+    <t>9840001516</t>
+  </si>
+  <si>
+    <t>9840066635</t>
+  </si>
+  <si>
+    <t>158794</t>
+  </si>
+  <si>
+    <t>9840016926</t>
+  </si>
+  <si>
+    <t>9840004931</t>
+  </si>
+  <si>
+    <t>9840008487</t>
+  </si>
+  <si>
+    <t>9840010964</t>
+  </si>
+  <si>
+    <t>9840098070</t>
+  </si>
+  <si>
+    <t>9840029878</t>
+  </si>
+  <si>
+    <t>9840016287</t>
+  </si>
+  <si>
+    <t>9840065582</t>
+  </si>
+  <si>
+    <t>9840053606</t>
+  </si>
+  <si>
+    <t>9840002874</t>
+  </si>
+  <si>
+    <t>9840088395</t>
+  </si>
+  <si>
+    <t>9840013287</t>
+  </si>
+  <si>
+    <t>158800</t>
+  </si>
+  <si>
+    <t>9840079245</t>
+  </si>
+  <si>
+    <t>9840050415</t>
+  </si>
+  <si>
+    <t>9840049469</t>
+  </si>
+  <si>
+    <t>9840082891</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>9840011337</t>
+  </si>
+  <si>
+    <t>9840081038</t>
+  </si>
+  <si>
+    <t>9840065924</t>
+  </si>
+  <si>
+    <t>9840086985</t>
+  </si>
+  <si>
+    <t>9840006609</t>
+  </si>
+  <si>
+    <t>9840025601</t>
+  </si>
+  <si>
+    <t>9840017924</t>
+  </si>
+  <si>
+    <t>9840057952</t>
+  </si>
+  <si>
+    <t>158805</t>
+  </si>
+  <si>
+    <t>9840053600</t>
+  </si>
+  <si>
+    <t>9840036133</t>
+  </si>
+  <si>
+    <t>9840020714</t>
+  </si>
+  <si>
+    <t>9840030190</t>
+  </si>
+  <si>
+    <t>158807</t>
+  </si>
+  <si>
+    <t>9840029407</t>
+  </si>
+  <si>
+    <t>9840017796</t>
+  </si>
+  <si>
+    <t>9840062001</t>
+  </si>
+  <si>
+    <t>9840058875</t>
+  </si>
+  <si>
+    <t>158809</t>
+  </si>
+  <si>
+    <t>9840090429</t>
+  </si>
+  <si>
+    <t>9840086067</t>
+  </si>
+  <si>
+    <t>9840094430</t>
+  </si>
+  <si>
+    <t>9840034288</t>
+  </si>
+  <si>
+    <t>9840075587</t>
+  </si>
+  <si>
+    <t>9840022748</t>
+  </si>
+  <si>
+    <t>9840041817</t>
+  </si>
+  <si>
+    <t>9840058648</t>
+  </si>
+  <si>
+    <t>158811</t>
+  </si>
+  <si>
+    <t>9840066560</t>
+  </si>
+  <si>
+    <t>9840014248</t>
+  </si>
+  <si>
+    <t>9840047198</t>
+  </si>
+  <si>
+    <t>9840086797</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1754,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1460,13 +1778,13 @@
         <v>26</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="O2" t="s" s="2">
         <v>143</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="Q2" s="2">
         <v>444444444</v>
@@ -1505,13 +1823,13 @@
         <v>46</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="AD2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1529,7 +1847,7 @@
         <v>144</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="AQ2" s="2" t="s">
         <v>138</v>
@@ -1541,7 +1859,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1553,7 +1871,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -1815,7 +2133,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -1890,7 +2208,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -1914,7 +2232,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -1926,7 +2244,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -2181,7 +2499,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -2256,7 +2574,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -2280,7 +2598,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -2292,7 +2610,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -2547,7 +2865,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -2622,7 +2940,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -2646,7 +2964,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -2658,7 +2976,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>

--- a/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
+++ b/testData/Schedule/Schedule_Notify_MonthbyDate_Test.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="291">
   <si>
     <t>ModuleName</t>
   </si>
@@ -891,6 +891,18 @@
   </si>
   <si>
     <t>9840086797</t>
+  </si>
+  <si>
+    <t>9840067290</t>
+  </si>
+  <si>
+    <t>9840054005</t>
+  </si>
+  <si>
+    <t>9840083579</t>
+  </si>
+  <si>
+    <t>9840060672</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1766,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>75</v>
@@ -1829,7 +1841,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -1859,7 +1871,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>115</v>
@@ -1871,7 +1883,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>122</v>
@@ -2133,7 +2145,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>86</v>
@@ -2208,7 +2220,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>77</v>
@@ -2232,7 +2244,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>116</v>
@@ -2244,7 +2256,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>123</v>
@@ -2499,7 +2511,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>87</v>
@@ -2574,7 +2586,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>80</v>
@@ -2598,7 +2610,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>117</v>
@@ -2610,7 +2622,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>124</v>
@@ -2865,7 +2877,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>133</v>
@@ -2940,7 +2952,7 @@
         <v>42</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>73</v>
@@ -2964,7 +2976,7 @@
         <v>62</v>
       </c>
       <c r="AT2" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AU2" s="4" t="s">
         <v>136</v>
@@ -2976,7 +2988,7 @@
         <v>42</v>
       </c>
       <c r="AX2" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AY2" s="4" t="s">
         <v>137</v>
